--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.414</v>
+        <v>-20.474</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.218</v>
+        <v>-21.153</v>
       </c>
       <c r="B7" t="n">
-        <v>6.662000000000001</v>
+        <v>6.053</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.518000000000001</v>
+        <v>4.877000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.378</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.556000000000001</v>
+        <v>-8.281000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.931999999999999</v>
+        <v>-7.786999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>5.359000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.98</v>
+        <v>-21.43</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.448</v>
+        <v>-8.518000000000002</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.651999999999999</v>
+        <v>-7.796000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.956</v>
+        <v>-21.857</v>
       </c>
       <c r="B20" t="n">
-        <v>5.464</v>
+        <v>5.539</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.48</v>
+        <v>8.904</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,16 +805,16 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>5.886</v>
+        <v>6.197</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.586000000000002</v>
+        <v>-8.266999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>16.524</v>
+        <v>16.492</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.384</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.728</v>
+        <v>-21.85</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.302</v>
+        <v>-21.312</v>
       </c>
       <c r="B29" t="n">
-        <v>6.052</v>
+        <v>6.093</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.126</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="30">
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.786</v>
+        <v>-21.599</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.35</v>
+        <v>7.603999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>16.806</v>
+        <v>16.663</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.938000000000001</v>
+        <v>-7.632</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.572</v>
+        <v>-20.312</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.298</v>
+        <v>7.238000000000001</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.966</v>
+        <v>5.795</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.132</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="44">
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.728000000000001</v>
+        <v>5.315</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.794</v>
+        <v>5.286</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-20.93</v>
+        <v>-20.849</v>
       </c>
       <c r="B46" t="n">
-        <v>6.358</v>
+        <v>6.865</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.6</v>
+        <v>-7.833</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.122</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="49">
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.380000000000001</v>
+        <v>5.828</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.228</v>
+        <v>-8.158000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.244</v>
+        <v>-20.771</v>
       </c>
       <c r="B51" t="n">
-        <v>7.159999999999999</v>
+        <v>7.779000000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.328</v>
+        <v>-21.316</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.944</v>
+        <v>-22.137</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.332</v>
+        <v>-22.091</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>16.34</v>
+        <v>16.413</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.796</v>
+        <v>-21.85</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.424</v>
+        <v>-21.322</v>
       </c>
       <c r="B66" t="n">
-        <v>6.074</v>
+        <v>5.83</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.414</v>
+        <v>5.194999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.504</v>
+        <v>17.334</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.504</v>
+        <v>17.626</v>
       </c>
     </row>
     <row r="71">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.976</v>
+        <v>-20.53</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1681,12 +1681,12 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.462</v>
+        <v>16.528</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.21</v>
+        <v>-21.043</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.516</v>
+        <v>5.605</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.42</v>
+        <v>5.781000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.626</v>
+        <v>16.465</v>
       </c>
     </row>
     <row r="88">
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-20.286</v>
+        <v>-20.946</v>
       </c>
       <c r="B92" t="n">
-        <v>6.973999999999999</v>
+        <v>6.044</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.998</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.568</v>
+        <v>-7.784000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2080,13 +2080,13 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>4.362</v>
+        <v>5.161</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.542</v>
+        <v>-8.465</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.282</v>
+        <v>-21.481</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.558</v>
+        <v>16.666</v>
       </c>
     </row>
     <row r="102">
